--- a/data/trans_dic/P11_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P11_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuya vivienda tiene &lt;=2 habitaciones</t>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,85; 21,93</t>
+          <t>11,9; 24,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,68; 23,41</t>
+          <t>11,79; 23,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,14; 24,39</t>
+          <t>9,44; 21,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 27,09</t>
+          <t>9,66; 22,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 26,1</t>
+          <t>17,03; 29,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 25,99</t>
+          <t>16,69; 28,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 23,24</t>
+          <t>16,22; 28,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 23,48</t>
+          <t>13,05; 25,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,87</t>
+          <t>15,97; 24,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 23,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 22,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 22,37</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 25,68</t>
+          <t>8,16; 25,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,21; 28,33</t>
+          <t>7,91; 24,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,17; 27,65</t>
+          <t>8,63; 22,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 28,03</t>
+          <t>10,71; 24,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,29; 31,12</t>
+          <t>11,33; 22,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 27,95</t>
+          <t>12,85; 25,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 24,55</t>
+          <t>11,34; 23,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,93; 27,86</t>
+          <t>8,86; 20,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 25,95</t>
+          <t>11,39; 20,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,04; 21,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 20,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,03; 20,56</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>18,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 52,03</t>
+          <t>0,0; 67,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,48</t>
+          <t>0,0; 17,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 17,72</t>
+          <t>0,0; 18,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 22,01</t>
+          <t>0,0; 23,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 27,32</t>
+          <t>2,52; 22,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 33,26</t>
+          <t>7,48; 31,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 32,69</t>
+          <t>14,04; 43,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 17,85</t>
+          <t>7,94; 35,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 21,73</t>
+          <t>5,11; 45,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 19,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,26; 27,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 25,41</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 22,15</t>
+          <t>12,13; 25,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 21,74</t>
+          <t>10,6; 19,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,9</t>
+          <t>9,88; 17,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,41</t>
+          <t>10,93; 20,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 25,42</t>
+          <t>14,71; 22,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 24,63</t>
+          <t>16,1; 24,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,23</t>
+          <t>16,53; 24,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 22,65</t>
+          <t>12,91; 21,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 22,13</t>
+          <t>14,98; 22,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 20,33</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 19,98</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13,01; 19,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya vivienda tiene &lt;=2 habitaciones (tasa de respuesta: 99,75%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74504</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60565</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55518</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>81324</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>113409</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>92365</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87098</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>102943</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>187913</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>152930</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>142617</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>184268</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50867; 103084</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43171; 86547</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35935; 80306</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>49197; 115342</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>86669; 150732</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>70283; 120019</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>66110; 116674</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73136; 144010</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>149542; 232432</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>121096; 187599</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>111956; 176258</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>141844; 239265</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49857</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>44826</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45169</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68947</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70529</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62161</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56656</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59919</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>120386</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>106988</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>101825</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>128867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29325; 90366</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24854; 77249</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27832; 72859</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43582; 101695</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48182; 97243</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43492; 85679</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37990; 80044</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38208; 88216</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>89379; 163857</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>78582; 140945</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75356; 138047</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92504; 172339</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27038</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2703</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4855</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7587</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9916</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12981</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23169</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21815</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36954</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28024</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29403</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 68628</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13677</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15408</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 27688</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2547; 23081</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6098; 25854</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11587; 36250</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8841; 39195</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10362; 92634</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6471; 30690</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13884; 46160</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15025; 58644</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>151400</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>108094</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>105543</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>157859</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>193854</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>166923</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>184678</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>345253</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>275602</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>272466</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>342537</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>107809; 222416</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80515; 147458</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77990; 139431</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>113214; 213221</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>152305; 233896</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>135436; 202871</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>136346; 205894</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>142372; 236412</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>288260; 425339</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>228129; 325447</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>225374; 322446</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>278214; 412553</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
